--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="624"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -404,6 +404,10 @@
   </si>
   <si>
     <t>FlowMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:兩段式 4.四段式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -930,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1130,7 +1134,9 @@
         <v>12</v>
       </c>
       <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="21" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="17">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="624"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>流程控制序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>decimald</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,6 +404,10 @@
   </si>
   <si>
     <t>2:兩段式 4.四段式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程控制序號((單位+使用者編號+交易序號)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -934,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -983,7 +983,7 @@
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="11"/>
@@ -1039,22 +1039,22 @@
         <v>0</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="15" t="s">
         <v>89</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="20" t="s">
         <v>14</v>
@@ -1085,13 +1085,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="21"/>
@@ -1102,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>15</v>
@@ -1122,10 +1122,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>16</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1144,10 +1144,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>16</v>
@@ -1156,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1165,10 +1165,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>16</v>
@@ -1177,7 +1177,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1186,10 +1186,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>15</v>
@@ -1204,10 +1204,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>15</v>
@@ -1222,10 +1222,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>15</v>
@@ -1240,10 +1240,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>15</v>
@@ -1258,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="19" t="s">
         <v>15</v>
@@ -1276,10 +1276,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>15</v>
@@ -1294,16 +1294,16 @@
         <v>13</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D21" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1312,16 +1312,16 @@
         <v>14</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1330,16 +1330,16 @@
         <v>15</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D23" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,16 +1348,16 @@
         <v>16</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>24</v>
-      </c>
-      <c r="E24" s="20" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1366,16 +1366,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1384,16 +1384,16 @@
         <v>18</v>
       </c>
       <c r="B26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>74</v>
-      </c>
       <c r="E26" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1402,10 +1402,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="19" t="s">
         <v>15</v>
@@ -1422,10 +1422,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="D28" s="26" t="s">
         <v>16</v>
@@ -1442,16 +1442,16 @@
         <v>21</v>
       </c>
       <c r="B29" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="25" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="28"/>
@@ -1462,16 +1462,16 @@
         <v>22</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="E30" s="27" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>84</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
@@ -1482,10 +1482,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="19" t="s">
         <v>16</v>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1504,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>41</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>42</v>
       </c>
       <c r="E32" s="20"/>
     </row>
@@ -1520,13 +1520,13 @@
         <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="E33" s="20">
         <v>6</v>
@@ -1538,13 +1538,13 @@
         <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="21" t="s">
-        <v>47</v>
-      </c>
       <c r="D34" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="20"/>
     </row>
@@ -1554,13 +1554,13 @@
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="21" t="s">
-        <v>49</v>
-      </c>
       <c r="D35" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E35" s="20">
         <v>6</v>
@@ -1613,32 +1613,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxFlow.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E78C2C-1D32-4825-990B-F58563F2DE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -375,10 +376,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Entdy = ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SubmitFg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -408,13 +405,17 @@
   </si>
   <si>
     <t>流程控制序號((單位+使用者編號+交易序號)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Entdy &gt;= ,AND Entdy &lt;= ,AND FlowBrNo = ,AND FlowMode = ,AND TranNo % ,AND FlowGroupNo ^i</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -527,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,7 +538,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -555,15 +556,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -576,9 +574,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,9 +591,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -630,7 +622,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -646,9 +638,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -686,9 +678,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -758,7 +750,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -931,29 +923,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.44140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="8"/>
+    <col min="1" max="1" width="5.08984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
@@ -964,605 +956,605 @@
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="3"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.4">
+      <c r="A8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D10" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
         <f t="shared" ref="A11:A35" si="0">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>5</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+      <c r="F12" s="18"/>
+      <c r="G12" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>99</v>
+      <c r="B14" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="15">
         <f>A20+1</f>
         <v>13</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+    <row r="27" spans="1:7" ht="15.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-    </row>
-    <row r="29" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="15">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="25" t="s">
+      <c r="B30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-    </row>
-    <row r="31" spans="1:7" s="29" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:7" s="26" customFormat="1" ht="31" x14ac:dyDescent="0.4">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="31" t="s">
+      <c r="B31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21" t="s">
+      <c r="F31" s="18"/>
+      <c r="G31" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="15">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E32" s="20"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="15">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="15">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>6</v>
       </c>
     </row>
@@ -1583,24 +1575,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="125.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="5"/>
+    <col min="5" max="16384" width="8.90625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1611,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -1622,18 +1614,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
